--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4FFEF5-89D4-4FB7-BB94-BA91F1B79962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998650A8-C29D-49D4-86BE-6DB824392756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>editing function</t>
-  </si>
-  <si>
-    <t>progress</t>
   </si>
   <si>
     <t>deleting function</t>
@@ -110,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +121,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,8 +159,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -160,16 +181,53 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -178,21 +236,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86BD080-54FD-479C-A6A6-999A9F6BB053}">
-  <dimension ref="A4:D26"/>
+  <dimension ref="A3:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,265 +613,424 @@
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C42" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D42" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B44" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B45" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B46" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B47" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B51" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B52" s="6">
         <v>3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C52" s="6">
         <v>3</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="D52" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B53" s="8">
+        <v>6</v>
+      </c>
+      <c r="C53" s="8">
         <v>4</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="D53" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B54" s="6">
+        <v>6</v>
+      </c>
+      <c r="C54" s="6">
         <v>4</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="D54" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B55" s="8">
         <v>8</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5" t="s">
+      <c r="C55" s="8">
+        <v>2</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B56" s="6">
+        <v>8</v>
+      </c>
+      <c r="C56" s="6">
+        <v>8</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3">
-        <v>7</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B57" s="8">
+        <v>1</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B61" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B62" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="4">
-        <f>SUM(B7:B25)</f>
+      <c r="B63" s="8">
         <v>34</v>
       </c>
-      <c r="C26" s="4">
-        <f>SUM(C7:C20)</f>
-        <v>20.25</v>
-      </c>
-      <c r="D26" s="1"/>
+      <c r="C63" s="8">
+        <v>23.25</v>
+      </c>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4D65E5-8255-442A-9894-2A3E7C75AF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4C7527-55DA-49A0-89CE-7A2152344E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>calling function</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Total hours</t>
   </si>
   <si>
-    <t>sr no</t>
-  </si>
-  <si>
-    <t>task Assigned</t>
-  </si>
-  <si>
     <t>Estimited time</t>
   </si>
   <si>
@@ -58,46 +52,55 @@
     <t>Status</t>
   </si>
   <si>
-    <t>csv hander.py</t>
-  </si>
-  <si>
-    <t>readlines in csv file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">append  object through </t>
-  </si>
-  <si>
-    <t xml:space="preserve">write object through </t>
-  </si>
-  <si>
-    <t>input function</t>
-  </si>
-  <si>
-    <t>create class and object</t>
-  </si>
-  <si>
-    <t>init method passing employee details</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adding object thourght</t>
-  </si>
-  <si>
-    <t>Search search by employee id, searching by name</t>
-  </si>
-  <si>
-    <t>display</t>
-  </si>
-  <si>
-    <t>editing</t>
-  </si>
-  <si>
-    <t>deleting</t>
-  </si>
-  <si>
-    <t>import classs</t>
-  </si>
-  <si>
     <t>create Menu</t>
+  </si>
+  <si>
+    <t>Task Assigned</t>
+  </si>
+  <si>
+    <t>Readlines in csv file</t>
+  </si>
+  <si>
+    <t>Append into csv file</t>
+  </si>
+  <si>
+    <t>Write into csv file</t>
+  </si>
+  <si>
+    <t>Create class and object</t>
+  </si>
+  <si>
+    <t>constructor method passing employee details</t>
+  </si>
+  <si>
+    <t>Search search by employee id, searching by name menu option</t>
+  </si>
+  <si>
+    <t>Display menu option</t>
+  </si>
+  <si>
+    <t>Editing menu option</t>
+  </si>
+  <si>
+    <t>Deleting menu option</t>
+  </si>
+  <si>
+    <t>Sr no</t>
+  </si>
+  <si>
+    <t>Adding menu option</t>
+  </si>
+  <si>
+    <t>List cleaning method</t>
+  </si>
+  <si>
+    <t>checking Employee_id method</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>in-progress</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,11 +164,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -186,11 +204,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,19 +538,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86BD080-54FD-479C-A6A6-999A9F6BB053}">
-  <dimension ref="A3:E88"/>
+  <dimension ref="A3:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,24 +702,19 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="D69" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="E69" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -695,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" s="9">
         <v>0.25</v>
@@ -706,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72" s="9">
         <v>0.25</v>
@@ -717,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73" s="9">
         <v>0.25</v>
@@ -728,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74" s="9">
         <v>1</v>
@@ -739,10 +766,10 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,10 +777,10 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C76" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -761,10 +788,10 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C77" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -772,10 +799,10 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C78" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -783,71 +810,305 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C79" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>11</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="10"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="12">
+        <v>1</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="D94" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
+        <v>2</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="D95" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="12">
+        <v>3</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
+        <v>4</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D97" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
+        <v>5</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="D98" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
+        <v>6</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="17">
+        <v>1</v>
+      </c>
+      <c r="D99" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
+        <v>7</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="17">
+        <v>2</v>
+      </c>
+      <c r="D100" s="17">
+        <v>2</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="12">
+        <v>8</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C101" s="17">
+        <v>3</v>
+      </c>
+      <c r="D101" s="17">
+        <v>3</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="12">
+        <v>9</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="17">
+        <v>7</v>
+      </c>
+      <c r="D102" s="17">
+        <v>5</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="12">
+        <v>10</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="17">
+        <v>2</v>
+      </c>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="12">
+        <v>11</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="17">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="12">
+        <v>12</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="17">
+        <v>7</v>
+      </c>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="12">
         <v>13</v>
       </c>
-      <c r="B81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="B106" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="12">
         <v>14</v>
       </c>
-      <c r="B83" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" s="9">
+      <c r="B107" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="17">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>15</v>
-      </c>
-      <c r="B84" t="s">
-        <v>20</v>
-      </c>
-      <c r="C84" s="9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>16</v>
-      </c>
-      <c r="B85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="11" t="s">
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
+      <c r="B108" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="C108" s="17">
+        <f>SUM(C94:C107)</f>
+        <v>32.5</v>
+      </c>
+      <c r="D108" s="17">
+        <f>SUM(D94:D102)</f>
+        <v>12.5</v>
+      </c>
+      <c r="E108" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4C7527-55DA-49A0-89CE-7A2152344E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6BC755-0F5B-4B2F-94CD-89F46D36E351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>calling function</t>
   </si>
@@ -183,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -223,6 +223,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86BD080-54FD-479C-A6A6-999A9F6BB053}">
   <dimension ref="A3:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,159 +703,50 @@
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>3</v>
-      </c>
-      <c r="B73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>4</v>
-      </c>
-      <c r="B74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>5</v>
-      </c>
-      <c r="B75" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>6</v>
-      </c>
-      <c r="B76" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>7</v>
-      </c>
-      <c r="B77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>8</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>9</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>10</v>
-      </c>
-      <c r="B80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="9">
-        <v>7</v>
-      </c>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="11"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>11</v>
-      </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="9">
-        <v>0.25</v>
-      </c>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>14</v>
-      </c>
-      <c r="B82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="9">
-        <v>0.25</v>
-      </c>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="B83" s="10"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" s="10"/>
@@ -925,8 +819,12 @@
       <c r="C96" s="17">
         <v>0.25</v>
       </c>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
+      <c r="D96" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
@@ -1024,10 +922,10 @@
         <v>7</v>
       </c>
       <c r="D102" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -1040,8 +938,12 @@
       <c r="C103" s="17">
         <v>2</v>
       </c>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
+      <c r="D103" s="18">
+        <v>1.75</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
@@ -1053,8 +955,12 @@
       <c r="C104" s="17">
         <v>8</v>
       </c>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
+      <c r="D104" s="18">
+        <v>5</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
@@ -1067,7 +973,9 @@
         <v>7</v>
       </c>
       <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
+      <c r="E105" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
@@ -1105,8 +1013,8 @@
         <v>32.5</v>
       </c>
       <c r="D108" s="17">
-        <f>SUM(D94:D102)</f>
-        <v>12.5</v>
+        <f>SUM(D94:D104)</f>
+        <v>20.5</v>
       </c>
       <c r="E108" s="12"/>
     </row>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6BC755-0F5B-4B2F-94CD-89F46D36E351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1907AC9-6BCB-4781-AFBF-396456619BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>calling function</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>completed</t>
-  </si>
-  <si>
-    <t>in-progress</t>
   </si>
 </sst>
 </file>
@@ -543,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86BD080-54FD-479C-A6A6-999A9F6BB053}">
   <dimension ref="A3:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:E108"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="D104" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -972,9 +969,11 @@
       <c r="C105" s="17">
         <v>7</v>
       </c>
-      <c r="D105" s="12"/>
+      <c r="D105" s="18">
+        <v>6.5</v>
+      </c>
       <c r="E105" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -987,8 +986,12 @@
       <c r="C106" s="17">
         <v>0.25</v>
       </c>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
+      <c r="D106" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
@@ -1000,8 +1003,12 @@
       <c r="C107" s="17">
         <v>0.25</v>
       </c>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
+      <c r="D107" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
@@ -1013,8 +1020,8 @@
         <v>32.5</v>
       </c>
       <c r="D108" s="17">
-        <f>SUM(D94:D104)</f>
-        <v>20.5</v>
+        <f>SUM(D94:D107)</f>
+        <v>28.5</v>
       </c>
       <c r="E108" s="12"/>
     </row>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1907AC9-6BCB-4781-AFBF-396456619BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D55199-5AF7-4BF1-B38A-75BB1C514EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>calling function</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finding some error and solve it completed</t>
+  </si>
+  <si>
+    <t>finding  some error and solve it,completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finding some Error. In-progress</t>
   </si>
 </sst>
 </file>
@@ -541,7 +553,7 @@
   <dimension ref="A3:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+      <selection activeCell="A93" sqref="A93:E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +562,7 @@
     <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -902,10 +914,10 @@
         <v>3</v>
       </c>
       <c r="D101" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -953,10 +965,10 @@
         <v>8</v>
       </c>
       <c r="D104" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -970,10 +982,10 @@
         <v>7</v>
       </c>
       <c r="D105" s="18">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -990,7 +1002,7 @@
         <v>0.25</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -1021,7 +1033,7 @@
       </c>
       <c r="D108" s="17">
         <f>SUM(D94:D107)</f>
-        <v>28.5</v>
+        <v>36.5</v>
       </c>
       <c r="E108" s="12"/>
     </row>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D55199-5AF7-4BF1-B38A-75BB1C514EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9BD92D-7657-47CF-851E-7177A6F90866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -103,13 +103,14 @@
     <t xml:space="preserve"> finding some error and solve it completed</t>
   </si>
   <si>
-    <t>finding  some error and solve it,completed</t>
-  </si>
-  <si>
     <t xml:space="preserve"> completed</t>
   </si>
   <si>
     <t xml:space="preserve"> finding some Error. In-progress</t>
+  </si>
+  <si>
+    <t>finding  some error.hole code modify to different way.problem 
+searching will be repeated without repeated solve it. In-progress</t>
   </si>
 </sst>
 </file>
@@ -192,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -235,6 +236,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86BD080-54FD-479C-A6A6-999A9F6BB053}">
   <dimension ref="A3:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
       <selection activeCell="A93" sqref="A93:E108"/>
     </sheetView>
   </sheetViews>
@@ -562,7 +566,7 @@
     <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,7 +958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>11</v>
       </c>
@@ -965,10 +969,11 @@
         <v>8</v>
       </c>
       <c r="D104" s="18">
-        <v>10</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>22</v>
+        <f>SUM(10,8)</f>
+        <v>18</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -982,10 +987,11 @@
         <v>7</v>
       </c>
       <c r="D105" s="18">
+        <f>SUM(8.5)</f>
         <v>8.5</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -1002,7 +1008,7 @@
         <v>0.25</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,7 +1039,7 @@
       </c>
       <c r="D108" s="17">
         <f>SUM(D94:D107)</f>
-        <v>36.5</v>
+        <v>44.5</v>
       </c>
       <c r="E108" s="12"/>
     </row>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9BD92D-7657-47CF-851E-7177A6F90866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C931E4B8-88B3-410C-9AEC-F3EE7476ADB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -109,8 +109,7 @@
     <t xml:space="preserve"> finding some Error. In-progress</t>
   </si>
   <si>
-    <t>finding  some error.hole code modify to different way.problem 
-searching will be repeated without repeated solve it. In-progress</t>
+    <t>finding  some error. And solve it using oops. Testing  in-progress</t>
   </si>
 </sst>
 </file>
@@ -556,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86BD080-54FD-479C-A6A6-999A9F6BB053}">
   <dimension ref="A3:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
       <selection activeCell="A93" sqref="A93:E108"/>
     </sheetView>
   </sheetViews>
@@ -935,7 +934,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>20</v>
@@ -958,7 +957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>11</v>
       </c>
@@ -969,8 +968,8 @@
         <v>8</v>
       </c>
       <c r="D104" s="18">
-        <f>SUM(10,8)</f>
-        <v>18</v>
+        <f>SUM(10,8+6)</f>
+        <v>24</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>24</v>
@@ -1039,7 +1038,7 @@
       </c>
       <c r="D108" s="17">
         <f>SUM(D94:D107)</f>
-        <v>44.5</v>
+        <v>52.5</v>
       </c>
       <c r="E108" s="12"/>
     </row>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C931E4B8-88B3-410C-9AEC-F3EE7476ADB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD980BBC-5C56-479C-99E8-8339F0E48069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -100,16 +100,16 @@
     <t>completed</t>
   </si>
   <si>
-    <t xml:space="preserve"> finding some error and solve it completed</t>
-  </si>
-  <si>
     <t xml:space="preserve"> completed</t>
   </si>
   <si>
-    <t xml:space="preserve"> finding some Error. In-progress</t>
-  </si>
-  <si>
-    <t>finding  some error. And solve it using oops. Testing  in-progress</t>
+    <t>finding  some error. And solve it using oops. Completed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finding some error and solve it using oops. completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finding some error. and try to  solve it using oops. In-progress</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86BD080-54FD-479C-A6A6-999A9F6BB053}">
   <dimension ref="A3:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="A93" sqref="A93:E108"/>
     </sheetView>
   </sheetViews>
@@ -920,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -968,11 +968,11 @@
         <v>8</v>
       </c>
       <c r="D104" s="18">
-        <f>SUM(10,8+6)</f>
-        <v>24</v>
+        <f>SUM(10,8+6+4)</f>
+        <v>28</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -986,11 +986,11 @@
         <v>7</v>
       </c>
       <c r="D105" s="18">
-        <f>SUM(8.5)</f>
-        <v>8.5</v>
+        <f>SUM(8.5+4)</f>
+        <v>12.5</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>0.25</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="D108" s="17">
         <f>SUM(D94:D107)</f>
-        <v>52.5</v>
+        <v>60.5</v>
       </c>
       <c r="E108" s="12"/>
     </row>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD980BBC-5C56-479C-99E8-8339F0E48069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA2A437-1730-4490-B38F-AEE612BE7057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -100,23 +100,71 @@
     <t>completed</t>
   </si>
   <si>
-    <t xml:space="preserve"> completed</t>
-  </si>
-  <si>
-    <t>finding  some error. And solve it using oops. Completed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> finding some error and solve it using oops. completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> finding some error. and try to  solve it using oops. In-progress</t>
+    <r>
+      <t xml:space="preserve"> finding some error and solve it using oops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. completed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">finding  some error. And solve it using oops. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">finding some error. and try to  solve it using oops. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>completed</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +182,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -239,6 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +612,7 @@
   <dimension ref="A3:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:E108"/>
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +856,7 @@
       <c r="D94" s="17">
         <v>0.25</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E94" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -817,7 +873,7 @@
       <c r="D95" s="17">
         <v>0.25</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E95" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -834,7 +890,7 @@
       <c r="D96" s="17">
         <v>0.25</v>
       </c>
-      <c r="E96" s="12" t="s">
+      <c r="E96" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -851,7 +907,7 @@
       <c r="D97" s="17">
         <v>0.5</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E97" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -868,7 +924,7 @@
       <c r="D98" s="17">
         <v>0.75</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="E98" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -885,7 +941,7 @@
       <c r="D99" s="17">
         <v>0.75</v>
       </c>
-      <c r="E99" s="12" t="s">
+      <c r="E99" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -902,7 +958,7 @@
       <c r="D100" s="17">
         <v>2</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E100" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -920,7 +976,7 @@
         <v>5</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -936,7 +992,7 @@
       <c r="D102" s="17">
         <v>8</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="E102" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -953,7 +1009,7 @@
       <c r="D103" s="18">
         <v>1.75</v>
       </c>
-      <c r="E103" s="12" t="s">
+      <c r="E103" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -986,11 +1042,11 @@
         <v>7</v>
       </c>
       <c r="D105" s="18">
-        <f>SUM(8.5+4)</f>
-        <v>12.5</v>
+        <f>SUM(8.5+4+2+1)</f>
+        <v>15.5</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -1007,7 +1063,7 @@
         <v>0.25</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -1023,7 +1079,7 @@
       <c r="D107" s="17">
         <v>0.25</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E107" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1038,7 +1094,7 @@
       </c>
       <c r="D108" s="17">
         <f>SUM(D94:D107)</f>
-        <v>60.5</v>
+        <v>63.5</v>
       </c>
       <c r="E108" s="12"/>
     </row>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA2A437-1730-4490-B38F-AEE612BE7057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299B9E55-09D3-45C5-872B-9F26499B6EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
   <si>
     <t>calling function</t>
   </si>
@@ -159,12 +159,108 @@
       <t>completed</t>
     </r>
   </si>
+  <si>
+    <t>Learn tkinter</t>
+  </si>
+  <si>
+    <t>Title, icon, Label, Grid, place, entry widget, Button, maxsize, minsize,list box, canvas, progress bar, Photo Image, scroll bar, Menu, Menu Button, option Menu, scale, colorchooser, filedialog, savefile, OpenFile,Tcl. Completed</t>
+  </si>
+  <si>
+    <t>create menu</t>
+  </si>
+  <si>
+    <t>a.</t>
+  </si>
+  <si>
+    <t>Adding function</t>
+  </si>
+  <si>
+    <t>b.</t>
+  </si>
+  <si>
+    <t>display function</t>
+  </si>
+  <si>
+    <t>c.</t>
+  </si>
+  <si>
+    <t>delete function</t>
+  </si>
+  <si>
+    <t>d.</t>
+  </si>
+  <si>
+    <t>search function</t>
+  </si>
+  <si>
+    <t>e.</t>
+  </si>
+  <si>
+    <t>modify function</t>
+  </si>
+  <si>
+    <t>Csv Handler</t>
+  </si>
+  <si>
+    <t>read data into csv file</t>
+  </si>
+  <si>
+    <t>Append data into csv file</t>
+  </si>
+  <si>
+    <t>write data into csv file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI </t>
+  </si>
+  <si>
+    <t>adding data  from</t>
+  </si>
+  <si>
+    <t>editing  from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from </t>
+  </si>
+  <si>
+    <t>display from</t>
+  </si>
+  <si>
+    <t>in- progress</t>
+  </si>
+  <si>
+    <t>Adding</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>modify</t>
+  </si>
+  <si>
+    <t>All menu option GUI file operation</t>
+  </si>
+  <si>
+    <t>Adding from.     in-progress</t>
+  </si>
+  <si>
+    <t>Title, icon, Label, Grid, place, entry widget, Button, maxsize, minsize,,combo box, check button, radio button, frame, message box(showinfo,showwarning,showerror,askretrycancel,askyesno,askyesnocancel),list box, canvas, progress bar, Photo Image, scroll bar, Menu, Menu Button, option Menu, scale, colorchooser, filedialog, savefile, OpenFile,Tcl. completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in-progress</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +288,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF305496"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -247,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -295,6 +410,42 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86BD080-54FD-479C-A6A6-999A9F6BB053}">
-  <dimension ref="A3:E108"/>
+  <dimension ref="A3:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,6 +1249,466 @@
       </c>
       <c r="E108" s="12"/>
     </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="23">
+        <v>1</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="25">
+        <v>8</v>
+      </c>
+      <c r="D114" s="25">
+        <v>23</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="23">
+        <v>2</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" s="25">
+        <v>1</v>
+      </c>
+      <c r="D115" s="25"/>
+      <c r="E115" s="27"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="25">
+        <v>3</v>
+      </c>
+      <c r="D116" s="25">
+        <v>5</v>
+      </c>
+      <c r="E116" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117" s="25">
+        <v>3</v>
+      </c>
+      <c r="D117" s="25"/>
+      <c r="E117" s="27"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="25">
+        <v>3</v>
+      </c>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="25">
+        <v>5</v>
+      </c>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" s="25">
+        <v>6</v>
+      </c>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="28">
+        <v>3</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" s="25"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C123" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D123" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C124" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D124" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E124" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="23">
+        <v>4</v>
+      </c>
+      <c r="B125" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="24"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C126" s="18">
+        <v>3</v>
+      </c>
+      <c r="D126" s="29">
+        <v>3</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" s="25">
+        <v>4</v>
+      </c>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" s="25">
+        <v>4</v>
+      </c>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C129" s="25">
+        <v>4</v>
+      </c>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="30"/>
+      <c r="B130" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="22">
+        <f>SUM(C114:C129)</f>
+        <v>45.5</v>
+      </c>
+      <c r="D130" s="22">
+        <f>SUM(D114:D126)</f>
+        <v>34</v>
+      </c>
+      <c r="E130" s="24"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A141" s="30"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="25">
+        <v>8</v>
+      </c>
+      <c r="D141" s="25">
+        <v>23</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="30">
+        <v>2</v>
+      </c>
+      <c r="B142" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" s="25">
+        <v>1</v>
+      </c>
+      <c r="D142" s="25"/>
+      <c r="E142" s="27"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B143" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C143" s="25">
+        <v>3</v>
+      </c>
+      <c r="D143" s="25">
+        <v>4</v>
+      </c>
+      <c r="E143" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B144" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C144" s="25">
+        <v>3</v>
+      </c>
+      <c r="D144" s="25"/>
+      <c r="E144" s="27"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C145" s="25">
+        <v>3</v>
+      </c>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B146" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C146" s="25">
+        <v>5</v>
+      </c>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B147" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C147" s="25">
+        <v>6</v>
+      </c>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="30">
+        <v>3</v>
+      </c>
+      <c r="B148" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C148" s="25"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B149" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C149" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B150" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D150" s="25">
+        <v>1</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B151" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D151" s="32">
+        <v>1</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="30">
+        <v>4</v>
+      </c>
+      <c r="B152" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C152" s="25">
+        <v>10</v>
+      </c>
+      <c r="D152" s="25">
+        <v>5</v>
+      </c>
+      <c r="E152" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="30"/>
+      <c r="B153" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="22">
+        <v>40.5</v>
+      </c>
+      <c r="D153" s="22">
+        <f>SUM(D141:D152)</f>
+        <v>34</v>
+      </c>
+      <c r="E153" s="24"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299B9E55-09D3-45C5-872B-9F26499B6EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9643C4-ACD1-45D6-9CB9-DB880DF5C9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>calling function</t>
   </si>
@@ -223,12 +223,6 @@
     <t xml:space="preserve">delete from </t>
   </si>
   <si>
-    <t>display from</t>
-  </si>
-  <si>
-    <t>in- progress</t>
-  </si>
-  <si>
     <t>Adding</t>
   </si>
   <si>
@@ -247,20 +241,23 @@
     <t>All menu option GUI file operation</t>
   </si>
   <si>
-    <t>Adding from.     in-progress</t>
-  </si>
-  <si>
     <t>Title, icon, Label, Grid, place, entry widget, Button, maxsize, minsize,,combo box, check button, radio button, frame, message box(showinfo,showwarning,showerror,askretrycancel,askyesno,askyesnocancel),list box, canvas, progress bar, Photo Image, scroll bar, Menu, Menu Button, option Menu, scale, colorchooser, filedialog, savefile, OpenFile,Tcl. completed</t>
   </si>
   <si>
-    <t xml:space="preserve"> in-progress</t>
+    <t>Adding from, searching from completed, other option  in-progress</t>
+  </si>
+  <si>
+    <t>in-progress</t>
+  </si>
+  <si>
+    <t>searching from</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +302,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FF305496"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -362,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -445,6 +447,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86BD080-54FD-479C-A6A6-999A9F6BB053}">
   <dimension ref="A3:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,8 +1314,8 @@
       <c r="D116" s="25">
         <v>5</v>
       </c>
-      <c r="E116" s="27" t="s">
-        <v>47</v>
+      <c r="E116" s="33" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -1350,7 +1355,9 @@
         <v>5</v>
       </c>
       <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
+      <c r="E119" s="24" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
@@ -1482,13 +1489,17 @@
         <v>34</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C129" s="25">
         <v>4</v>
       </c>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
+      <c r="D129" s="17">
+        <v>4</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="30"/>
@@ -1532,7 +1543,7 @@
         <v>23</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -1553,16 +1564,16 @@
         <v>28</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C143" s="25">
         <v>3</v>
       </c>
       <c r="D143" s="25">
-        <v>4</v>
-      </c>
-      <c r="E143" s="27" t="s">
-        <v>56</v>
+        <v>6</v>
+      </c>
+      <c r="E143" s="33" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,7 +1581,7 @@
         <v>30</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C144" s="25">
         <v>3</v>
@@ -1583,7 +1594,7 @@
         <v>32</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C145" s="25">
         <v>3</v>
@@ -1596,20 +1607,24 @@
         <v>34</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C146" s="25">
         <v>5</v>
       </c>
-      <c r="D146" s="24"/>
-      <c r="E146" s="24"/>
+      <c r="D146" s="25">
+        <v>3</v>
+      </c>
+      <c r="E146" s="24" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
         <v>36</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C147" s="25">
         <v>6</v>
@@ -1680,16 +1695,16 @@
         <v>4</v>
       </c>
       <c r="B152" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C152" s="25">
         <v>10</v>
       </c>
       <c r="D152" s="25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E152" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -1702,7 +1717,7 @@
       </c>
       <c r="D153" s="22">
         <f>SUM(D141:D152)</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E153" s="24"/>
     </row>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9643C4-ACD1-45D6-9CB9-DB880DF5C9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F13A0FB-7831-49A8-B50A-D96DF2AF2865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t>calling function</t>
   </si>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86BD080-54FD-479C-A6A6-999A9F6BB053}">
   <dimension ref="A3:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1354,9 @@
       <c r="C119" s="25">
         <v>5</v>
       </c>
-      <c r="D119" s="24"/>
+      <c r="D119" s="32">
+        <v>6</v>
+      </c>
       <c r="E119" s="24" t="s">
         <v>54</v>
       </c>
@@ -1468,8 +1470,12 @@
       <c r="C127" s="25">
         <v>4</v>
       </c>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
+      <c r="D127" s="17">
+        <v>1</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
@@ -1495,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="D129" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>20</v>
@@ -1512,7 +1518,7 @@
       </c>
       <c r="D130" s="22">
         <f>SUM(D114:D126)</f>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E130" s="24"/>
     </row>
@@ -1613,10 +1619,10 @@
         <v>5</v>
       </c>
       <c r="D146" s="25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E146" s="24" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -1629,8 +1635,12 @@
       <c r="C147" s="25">
         <v>6</v>
       </c>
-      <c r="D147" s="24"/>
-      <c r="E147" s="24"/>
+      <c r="D147" s="25">
+        <v>1</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="30">
@@ -1701,7 +1711,7 @@
         <v>10</v>
       </c>
       <c r="D152" s="25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E152" s="24" t="s">
         <v>53</v>
@@ -1717,7 +1727,7 @@
       </c>
       <c r="D153" s="22">
         <f>SUM(D141:D152)</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E153" s="24"/>
     </row>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F13A0FB-7831-49A8-B50A-D96DF2AF2865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7236B8-34DE-4E48-9425-6D902D9A5E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
   <si>
     <t>calling function</t>
   </si>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86BD080-54FD-479C-A6A6-999A9F6BB053}">
   <dimension ref="A3:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,7 +1636,7 @@
         <v>6</v>
       </c>
       <c r="D147" s="25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E147" s="24" t="s">
         <v>54</v>
@@ -1663,8 +1663,12 @@
       <c r="C149" s="25">
         <v>0.5</v>
       </c>
-      <c r="D149" s="24"/>
-      <c r="E149" s="24"/>
+      <c r="D149" s="25">
+        <v>1</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
@@ -1711,7 +1715,7 @@
         <v>10</v>
       </c>
       <c r="D152" s="25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E152" s="24" t="s">
         <v>53</v>
@@ -1727,7 +1731,7 @@
       </c>
       <c r="D153" s="22">
         <f>SUM(D141:D152)</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E153" s="24"/>
     </row>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7236B8-34DE-4E48-9425-6D902D9A5E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63C7FB2-58CA-4E52-9DEC-F7DA17D267B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
   <si>
     <t>calling function</t>
   </si>
@@ -257,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +310,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -337,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -360,11 +366,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -450,6 +508,36 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86BD080-54FD-479C-A6A6-999A9F6BB053}">
-  <dimension ref="A3:E154"/>
+  <dimension ref="A3:E184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:E153"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170:E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,8 +1693,12 @@
       <c r="C145" s="25">
         <v>3</v>
       </c>
-      <c r="D145" s="24"/>
-      <c r="E145" s="24"/>
+      <c r="D145" s="25">
+        <v>1</v>
+      </c>
+      <c r="E145" s="24" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
@@ -1636,7 +1728,7 @@
         <v>6</v>
       </c>
       <c r="D147" s="25">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E147" s="24" t="s">
         <v>54</v>
@@ -1731,12 +1823,233 @@
       </c>
       <c r="D153" s="22">
         <f>SUM(D141:D152)</f>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E153" s="24"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
+    </row>
+    <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B170" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="36"/>
+      <c r="B171" s="38"/>
+      <c r="C171" s="39">
+        <v>8</v>
+      </c>
+      <c r="D171" s="39">
+        <v>23</v>
+      </c>
+      <c r="E171" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="36">
+        <v>2</v>
+      </c>
+      <c r="B172" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" s="39">
+        <v>1</v>
+      </c>
+      <c r="D172" s="39"/>
+      <c r="E172" s="41"/>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B173" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C173" s="39">
+        <v>3</v>
+      </c>
+      <c r="D173" s="39">
+        <v>6</v>
+      </c>
+      <c r="E173" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B174" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C174" s="39">
+        <v>3</v>
+      </c>
+      <c r="D174" s="39"/>
+      <c r="E174" s="41"/>
+    </row>
+    <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B175" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C175" s="39">
+        <v>3</v>
+      </c>
+      <c r="D175" s="39">
+        <v>1</v>
+      </c>
+      <c r="E175" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B176" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C176" s="39">
+        <v>5</v>
+      </c>
+      <c r="D176" s="39">
+        <v>6</v>
+      </c>
+      <c r="E176" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B177" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C177" s="39">
+        <v>6</v>
+      </c>
+      <c r="D177" s="39">
+        <v>21</v>
+      </c>
+      <c r="E177" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="36">
+        <v>3</v>
+      </c>
+      <c r="B178" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C178" s="39"/>
+      <c r="D178" s="38"/>
+      <c r="E178" s="38"/>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B179" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C179" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="D179" s="39">
+        <v>1</v>
+      </c>
+      <c r="E179" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B180" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C180" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="D180" s="39">
+        <v>1</v>
+      </c>
+      <c r="E180" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B181" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C181" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="D181" s="39">
+        <v>1</v>
+      </c>
+      <c r="E181" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="36">
+        <v>4</v>
+      </c>
+      <c r="B182" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C182" s="39">
+        <v>10</v>
+      </c>
+      <c r="D182" s="39">
+        <v>14</v>
+      </c>
+      <c r="E182" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="36"/>
+      <c r="B183" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="43">
+        <v>40.5</v>
+      </c>
+      <c r="D183" s="43">
+        <f>SUM(D171:D182)</f>
+        <v>74</v>
+      </c>
+      <c r="E183" s="38"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63C7FB2-58CA-4E52-9DEC-F7DA17D267B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E7094E-97F5-49FA-9170-632035A0DB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="57">
   <si>
     <t>calling function</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>searching from</t>
+  </si>
+  <si>
+    <t>Adding from, searching from,editing form,deleting form  completed</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -538,6 +541,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,7 +862,7 @@
   <dimension ref="A3:E184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170:E183"/>
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,8 +1907,12 @@
       <c r="C174" s="39">
         <v>3</v>
       </c>
-      <c r="D174" s="39"/>
-      <c r="E174" s="41"/>
+      <c r="D174" s="39">
+        <v>3</v>
+      </c>
+      <c r="E174" s="44" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="36" t="s">
@@ -1915,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E175" s="38" t="s">
         <v>54</v>
@@ -1952,7 +1962,7 @@
         <v>21</v>
       </c>
       <c r="E177" s="38" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2031,7 +2041,7 @@
         <v>14</v>
       </c>
       <c r="E182" s="38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2044,7 +2054,7 @@
       </c>
       <c r="D183" s="43">
         <f>SUM(D171:D182)</f>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E183" s="38"/>
     </row>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E7094E-97F5-49FA-9170-632035A0DB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626F9D23-3A1B-4FE0-9F3F-F075FEA46DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="60">
   <si>
     <t>calling function</t>
   </si>
@@ -254,6 +254,15 @@
   </si>
   <si>
     <t>Adding from, searching from,editing form,deleting form  completed</t>
+  </si>
+  <si>
+    <t>finding some error and solve it using . completed</t>
+  </si>
+  <si>
+    <t>finding some error and solve it using . Completed</t>
+  </si>
+  <si>
+    <t>Sr no+A170:E183</t>
   </si>
 </sst>
 </file>
@@ -425,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -532,9 +541,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -861,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86BD080-54FD-479C-A6A6-999A9F6BB053}">
   <dimension ref="A3:E184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,7 +1845,7 @@
     <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="34" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B170" s="35" t="s">
         <v>6</v>
@@ -1877,8 +1883,12 @@
       <c r="C172" s="39">
         <v>1</v>
       </c>
-      <c r="D172" s="39"/>
-      <c r="E172" s="41"/>
+      <c r="D172" s="39">
+        <v>2</v>
+      </c>
+      <c r="E172" s="43" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="36" t="s">
@@ -1910,7 +1920,7 @@
       <c r="D174" s="39">
         <v>3</v>
       </c>
-      <c r="E174" s="44" t="s">
+      <c r="E174" s="43" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1925,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="D175" s="39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E175" s="38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1942,10 +1952,10 @@
         <v>5</v>
       </c>
       <c r="D176" s="39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E176" s="38" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2038,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="D182" s="39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E182" s="38" t="s">
         <v>56</v>
@@ -2046,15 +2056,15 @@
     </row>
     <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="36"/>
-      <c r="B183" s="42" t="s">
+      <c r="B183" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C183" s="43">
+      <c r="C183" s="42">
         <v>40.5</v>
       </c>
-      <c r="D183" s="43">
+      <c r="D183" s="42">
         <f>SUM(D171:D182)</f>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E183" s="38"/>
     </row>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626F9D23-3A1B-4FE0-9F3F-F075FEA46DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83415286-5849-4F46-B183-1764D1561DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
   <si>
     <t>calling function</t>
   </si>
@@ -253,9 +253,6 @@
     <t>searching from</t>
   </si>
   <si>
-    <t>Adding from, searching from,editing form,deleting form  completed</t>
-  </si>
-  <si>
     <t>finding some error and solve it using . completed</t>
   </si>
   <si>
@@ -263,6 +260,12 @@
   </si>
   <si>
     <t>Sr no+A170:E183</t>
+  </si>
+  <si>
+    <t>Adding from, searching from,editing form,deleting form ,finding some error and solve it using . Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finding some error and solve it using  in-progress </t>
   </si>
 </sst>
 </file>
@@ -867,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86BD080-54FD-479C-A6A6-999A9F6BB053}">
   <dimension ref="A3:E184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170:E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +880,7 @@
     <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1845,7 +1848,7 @@
     <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B170" s="35" t="s">
         <v>6</v>
@@ -1884,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="D172" s="39">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E172" s="43" t="s">
         <v>20</v>
@@ -1918,10 +1921,10 @@
         <v>3</v>
       </c>
       <c r="D174" s="39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E174" s="43" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1938,7 +1941,7 @@
         <v>8</v>
       </c>
       <c r="E175" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1955,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="E176" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2048,10 +2051,10 @@
         <v>10</v>
       </c>
       <c r="D182" s="39">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E182" s="38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2064,7 +2067,7 @@
       </c>
       <c r="D183" s="42">
         <f>SUM(D171:D182)</f>
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E183" s="38"/>
     </row>

--- a/Authenticate/current stutus.xlsx
+++ b/Authenticate/current stutus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sudhir\basic python\Authenticate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83415286-5849-4F46-B183-1764D1561DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAB5664-36AD-41D2-8B6F-750D5CFA8F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{19B132A1-B8C0-473F-86DF-D26BE8AF2259}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="59">
   <si>
     <t>calling function</t>
   </si>
@@ -253,19 +253,13 @@
     <t>searching from</t>
   </si>
   <si>
-    <t>finding some error and solve it using . completed</t>
-  </si>
-  <si>
-    <t>finding some error and solve it using . Completed</t>
-  </si>
-  <si>
     <t>Sr no+A170:E183</t>
   </si>
   <si>
     <t>Adding from, searching from,editing form,deleting form ,finding some error and solve it using . Completed</t>
   </si>
   <si>
-    <t xml:space="preserve">finding some error and solve it using  in-progress </t>
+    <t>finding some error and solve it.   Completed</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1842,7 @@
     <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B170" s="35" t="s">
         <v>6</v>
@@ -1921,10 +1915,10 @@
         <v>3</v>
       </c>
       <c r="D174" s="39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E174" s="43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1941,7 +1935,7 @@
         <v>8</v>
       </c>
       <c r="E175" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1958,7 +1952,7 @@
         <v>10</v>
       </c>
       <c r="E176" s="38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2051,10 +2045,10 @@
         <v>10</v>
       </c>
       <c r="D182" s="39">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E182" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2067,7 +2061,7 @@
       </c>
       <c r="D183" s="42">
         <f>SUM(D171:D182)</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E183" s="38"/>
     </row>
